--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.659262653821207</v>
+        <v>2.596913578201459</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>195.114568960068</v>
+        <v>200.5614618394733</v>
       </c>
       <c r="O2" t="n">
-        <v>253.6489396480883</v>
+        <v>260.7299003913153</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.39357298709411</v>
+        <v>10.89864094008963</v>
       </c>
       <c r="R2" t="n">
-        <v>12.73716828957215</v>
+        <v>13.27633867977254</v>
       </c>
       <c r="S2" t="n">
-        <v>42.27482327468139</v>
+        <v>43.45498339855254</v>
       </c>
       <c r="T2" t="n">
-        <v>39.25519304077557</v>
+        <v>37.66098561207887</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.596913578201459</v>
+        <v>2.541435334301307</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -572,31 +572,31 @@
         <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>4.43</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N2" t="n">
-        <v>200.5614618394733</v>
+        <v>208.5503445015336</v>
       </c>
       <c r="O2" t="n">
-        <v>260.7299003913153</v>
+        <v>271.1154478519937</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.89864094008963</v>
+        <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>13.27633867977254</v>
+        <v>13.61894986641773</v>
       </c>
       <c r="S2" t="n">
-        <v>43.45498339855254</v>
+        <v>45.18590797533228</v>
       </c>
       <c r="T2" t="n">
-        <v>37.66098561207887</v>
+        <v>36.71355022995748</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -572,16 +572,16 @@
         <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.43</v>
+        <v>3.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N2" t="n">
-        <v>208.5503445015336</v>
+        <v>202.4562454279346</v>
       </c>
       <c r="O2" t="n">
-        <v>271.1154478519937</v>
+        <v>263.193119056315</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>13.61894986641773</v>
+        <v>14.02889142978565</v>
       </c>
       <c r="S2" t="n">
-        <v>45.18590797533228</v>
+        <v>43.86551984271917</v>
       </c>
       <c r="T2" t="n">
-        <v>36.71355022995748</v>
+        <v>35.64073487220932</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -557,7 +557,7 @@
         <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
         <v>2.541435334301307</v>
@@ -572,16 +572,16 @@
         <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>202.4562454279346</v>
+        <v>204.5181086432069</v>
       </c>
       <c r="O2" t="n">
-        <v>263.193119056315</v>
+        <v>265.873541236169</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>14.02889142978565</v>
+        <v>13.88745820716288</v>
       </c>
       <c r="S2" t="n">
-        <v>43.86551984271917</v>
+        <v>44.31225687269483</v>
       </c>
       <c r="T2" t="n">
-        <v>35.64073487220932</v>
+        <v>36.00370870906455</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -557,10 +557,10 @@
         <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.541435334301307</v>
+        <v>2.596913578201459</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -572,31 +572,31 @@
         <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>204.5181086432069</v>
+        <v>194.0425490874015</v>
       </c>
       <c r="O2" t="n">
-        <v>265.873541236169</v>
+        <v>252.255313813622</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.3796580381806</v>
+        <v>10.89864094008963</v>
       </c>
       <c r="R2" t="n">
-        <v>13.88745820716288</v>
+        <v>13.72236092555024</v>
       </c>
       <c r="S2" t="n">
-        <v>44.31225687269483</v>
+        <v>42.04255230227033</v>
       </c>
       <c r="T2" t="n">
-        <v>36.00370870906455</v>
+        <v>36.43687866196763</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.596913578201459</v>
+        <v>2.659262653821207</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -578,25 +578,25 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>194.0425490874015</v>
+        <v>188.7997105703927</v>
       </c>
       <c r="O2" t="n">
-        <v>252.255313813622</v>
+        <v>245.4396237415105</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.89864094008963</v>
+        <v>10.39357298709411</v>
       </c>
       <c r="R2" t="n">
-        <v>13.72236092555024</v>
+        <v>13.16319338140682</v>
       </c>
       <c r="S2" t="n">
-        <v>42.04255230227033</v>
+        <v>40.90660395691841</v>
       </c>
       <c r="T2" t="n">
-        <v>36.43687866196763</v>
+        <v>37.98470367428138</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.659262653821207</v>
+        <v>2.729817496050043</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
@@ -578,25 +578,25 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>188.7997105703927</v>
+        <v>183.3593614329581</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4396237415105</v>
+        <v>238.3671698628455</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.39357298709411</v>
+        <v>9.863251636448817</v>
       </c>
       <c r="R2" t="n">
-        <v>13.16319338140682</v>
+        <v>12.58562578783888</v>
       </c>
       <c r="S2" t="n">
-        <v>40.90660395691841</v>
+        <v>39.72786164380759</v>
       </c>
       <c r="T2" t="n">
-        <v>37.98470367428138</v>
+        <v>39.72786164380759</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo D.xlsx
+++ b/Cálculo Grupo D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Personas por viaje</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Paradas Probables</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>C (&gt;12)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>I (&lt;40)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de llenado</t>
         </is>
@@ -584,18 +589,21 @@
         <v>238.3671698628455</v>
       </c>
       <c r="P2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="n">
         <v>13</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>9.863251636448817</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>12.58562578783888</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>39.72786164380759</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>39.72786164380759</v>
       </c>
     </row>
